--- a/toydata/projects.xlsx
+++ b/toydata/projects.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roywilliams/Documents/grantPlanning/PAM.nb/toydata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3999244-952E-8148-9892-D23FECB70F34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBBE15CF-1131-3C48-9575-269A4E7907C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7920" yWindow="1920" windowWidth="16180" windowHeight="17580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7920" yWindow="1920" windowWidth="26020" windowHeight="15860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -122,9 +122,6 @@
     <t>10446744_10446748</t>
   </si>
   <si>
-    <t>Gaia Data Flow System: 2021-2024 (Edinburgh 2021/2022 Element)_10446748</t>
-  </si>
-  <si>
     <t>Science And Technology Facilities Council</t>
   </si>
   <si>
@@ -341,9 +338,6 @@
     <t>11111995_11111999</t>
   </si>
   <si>
-    <t>Venice</t>
-  </si>
-  <si>
     <t>Consumables - Research Other Costs</t>
   </si>
   <si>
@@ -366,6 +360,12 @@
   </si>
   <si>
     <t>31/06/2022</t>
+  </si>
+  <si>
+    <t>Venice: Reviving the old empire</t>
+  </si>
+  <si>
+    <t>Toy Gaia Data Flow System</t>
   </si>
 </sst>
 </file>
@@ -737,12 +737,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="36.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="20.33203125" customWidth="1"/>
     <col min="2" max="2" width="36.1640625" customWidth="1"/>
     <col min="3" max="3" width="2.33203125" customWidth="1"/>
     <col min="4" max="4" width="2.1640625" customWidth="1"/>
@@ -791,13 +792,13 @@
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>7</v>
@@ -806,10 +807,10 @@
         <v>8</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>9</v>
@@ -847,25 +848,25 @@
         <v>19</v>
       </c>
       <c r="B2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" t="s">
         <v>20</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>21</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>22</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>23</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>24</v>
       </c>
-      <c r="G2" t="s">
-        <v>25</v>
-      </c>
       <c r="H2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I2" s="1">
         <v>100000</v>
@@ -899,19 +900,19 @@
         <v>0</v>
       </c>
       <c r="S2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="W2" t="s">
         <v>26</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="W2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
@@ -919,38 +920,38 @@
         <v>19</v>
       </c>
       <c r="B3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" t="s">
         <v>20</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>22</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>23</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>24</v>
       </c>
-      <c r="G3" t="s">
-        <v>25</v>
-      </c>
       <c r="H3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I3" s="1">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="J3" s="1">
-        <v>2000</v>
+        <v>8000</v>
       </c>
       <c r="K3" s="1">
         <v>0</v>
       </c>
       <c r="L3" s="1">
         <f t="shared" si="0"/>
-        <v>8000</v>
+        <v>22000</v>
       </c>
       <c r="M3" s="6">
         <v>44651</v>
@@ -971,19 +972,19 @@
         <v>0</v>
       </c>
       <c r="S3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="W3" t="s">
         <v>26</v>
-      </c>
-      <c r="T3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="U3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="V3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="W3" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.2">
@@ -991,16 +992,16 @@
         <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>101</v>
       </c>
       <c r="F4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" t="s">
         <v>24</v>
       </c>
-      <c r="G4" t="s">
-        <v>25</v>
-      </c>
       <c r="H4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I4" s="1">
         <v>30000</v>
@@ -1033,16 +1034,16 @@
         <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>101</v>
       </c>
       <c r="F5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" t="s">
         <v>24</v>
       </c>
-      <c r="G5" t="s">
-        <v>25</v>
-      </c>
       <c r="H5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I5" s="1">
         <v>30000</v>
@@ -1072,33 +1073,33 @@
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B6" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="F6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" t="s">
         <v>24</v>
       </c>
-      <c r="G6" t="s">
-        <v>25</v>
-      </c>
       <c r="H6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I6" s="1">
         <v>200000</v>
       </c>
       <c r="J6" s="1">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="K6" s="1"/>
       <c r="L6" s="1">
         <f t="shared" si="0"/>
-        <v>190000</v>
+        <v>170000</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="N6" s="6">
         <v>45596</v>
@@ -1114,19 +1115,19 @@
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B7" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="F7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" t="s">
         <v>24</v>
       </c>
-      <c r="G7" t="s">
-        <v>25</v>
-      </c>
       <c r="H7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I7" s="1">
         <v>30000</v>
@@ -1140,7 +1141,7 @@
         <v>25000</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="N7" s="6">
         <v>45596</v>
@@ -1156,19 +1157,19 @@
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B8" t="s">
+        <v>100</v>
+      </c>
+      <c r="F8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" t="s">
         <v>92</v>
-      </c>
-      <c r="B8" t="s">
-        <v>93</v>
-      </c>
-      <c r="F8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H8" t="s">
-        <v>94</v>
       </c>
       <c r="I8" s="1">
         <v>30000</v>
@@ -1182,7 +1183,7 @@
         <v>25000</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="N8" s="6">
         <v>45596</v>
@@ -1198,19 +1199,19 @@
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B9" t="s">
+        <v>100</v>
+      </c>
+      <c r="F9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" t="s">
         <v>93</v>
-      </c>
-      <c r="F9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H9" t="s">
-        <v>95</v>
       </c>
       <c r="I9" s="1">
         <v>30000</v>
@@ -1224,7 +1225,7 @@
         <v>25000</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="N9" s="6">
         <v>45596</v>
@@ -1837,253 +1838,253 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s">
         <v>35</v>
-      </c>
-      <c r="B5" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" t="s">
         <v>41</v>
-      </c>
-      <c r="B11" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" t="s">
         <v>43</v>
-      </c>
-      <c r="B12" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" t="s">
         <v>45</v>
-      </c>
-      <c r="B13" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" t="s">
         <v>47</v>
-      </c>
-      <c r="B14" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" t="s">
         <v>49</v>
-      </c>
-      <c r="B15" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" t="s">
         <v>51</v>
-      </c>
-      <c r="B16" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" t="s">
         <v>53</v>
-      </c>
-      <c r="B17" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" t="s">
         <v>55</v>
-      </c>
-      <c r="B18" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" t="s">
         <v>57</v>
-      </c>
-      <c r="B19" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" t="s">
         <v>59</v>
-      </c>
-      <c r="B20" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" t="s">
         <v>61</v>
-      </c>
-      <c r="B21" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" t="s">
         <v>63</v>
-      </c>
-      <c r="B22" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" t="s">
         <v>65</v>
-      </c>
-      <c r="B23" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" t="s">
         <v>67</v>
-      </c>
-      <c r="B24" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>68</v>
+      </c>
+      <c r="B25" t="s">
         <v>69</v>
-      </c>
-      <c r="B25" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>70</v>
+      </c>
+      <c r="B26" t="s">
         <v>71</v>
-      </c>
-      <c r="B26" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>72</v>
+      </c>
+      <c r="B27" t="s">
         <v>73</v>
-      </c>
-      <c r="B27" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>74</v>
+      </c>
+      <c r="B28" t="s">
         <v>75</v>
-      </c>
-      <c r="B28" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>76</v>
+      </c>
+      <c r="B29" t="s">
         <v>77</v>
-      </c>
-      <c r="B29" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>78</v>
+      </c>
+      <c r="B30" t="s">
         <v>79</v>
-      </c>
-      <c r="B30" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>80</v>
+      </c>
+      <c r="B31" t="s">
         <v>81</v>
-      </c>
-      <c r="B31" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>82</v>
+      </c>
+      <c r="B32" t="s">
         <v>83</v>
-      </c>
-      <c r="B32" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
+        <v>84</v>
+      </c>
+      <c r="B33" t="s">
         <v>85</v>
-      </c>
-      <c r="B33" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>86</v>
+      </c>
+      <c r="B34" t="s">
         <v>87</v>
-      </c>
-      <c r="B34" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
+        <v>88</v>
+      </c>
+      <c r="B35" t="s">
         <v>89</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>90</v>
-      </c>
-      <c r="C35" t="s">
-        <v>91</v>
       </c>
     </row>
   </sheetData>
